--- a/source_data/Other/profile_1.xlsx
+++ b/source_data/Other/profile_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4F1B0-FE97-A748-B688-9D58BC699909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9578681-C161-874B-AD30-0DC686D7EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="289">
   <si>
     <t>Epoch</t>
   </si>
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1056,13 +1056,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,6 +1723,9 @@
       <c r="E2" s="11" t="s">
         <v>93</v>
       </c>
+      <c r="F2" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>94</v>
       </c>
@@ -1739,6 +1745,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>97</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>108</v>
@@ -1753,7 +1762,9 @@
       <c r="E4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>108</v>
       </c>
@@ -1767,7 +1778,9 @@
       <c r="E5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>108</v>
       </c>
@@ -1781,7 +1794,9 @@
       <c r="E6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>108</v>
       </c>
@@ -1795,7 +1810,9 @@
       <c r="E7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>108</v>
       </c>
@@ -1809,7 +1826,9 @@
       <c r="E8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>108</v>
       </c>
@@ -1823,7 +1842,9 @@
       <c r="E9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>108</v>
       </c>
@@ -1837,7 +1858,9 @@
       <c r="E10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>108</v>
       </c>
@@ -1851,7 +1874,9 @@
       <c r="E11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>108</v>
       </c>
@@ -1865,7 +1890,9 @@
       <c r="E12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="11" t="s">
         <v>108</v>
       </c>
@@ -1879,7 +1906,9 @@
       <c r="E13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="11" t="s">
         <v>108</v>
       </c>
@@ -2698,34 +2727,34 @@
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2847,16 +2876,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AB65E4-C826-B545-B64B-8309519EC1AD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/source_data/Other/profile_1.xlsx
+++ b/source_data/Other/profile_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9578681-C161-874B-AD30-0DC686D7EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2094546-75C9-9A4C-8938-660232EECA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
   <si>
     <t>Epoch</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>BASELINE</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
   </si>
 </sst>
 </file>
@@ -1052,20 +1055,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F13"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1726,7 @@
       <c r="E2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -1746,7 +1749,7 @@
       <c r="E3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1762,7 +1765,7 @@
       <c r="E4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1778,7 +1781,7 @@
       <c r="E5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1794,7 +1797,7 @@
       <c r="E6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -1810,7 +1813,7 @@
       <c r="E7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -1826,7 +1829,7 @@
       <c r="E8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1842,7 +1845,7 @@
       <c r="E9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1858,7 +1861,7 @@
       <c r="E10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1874,7 +1877,7 @@
       <c r="E11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1890,7 +1893,7 @@
       <c r="E12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1906,7 +1909,7 @@
       <c r="E13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -2572,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2597,6 +2600,14 @@
       </c>
       <c r="B2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2705,23 +2716,23 @@
       <c r="A1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
@@ -2738,78 +2749,78 @@
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
@@ -2876,16 +2887,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3078,10 +3089,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
